--- a/module/Administracion/view/administracion/mensualidad/plantilla_reporte_venta.xlsx
+++ b/module/Administracion/view/administracion/mensualidad/plantilla_reporte_venta.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\gimnasio\module\Administracion\view\administracion\mensualidad\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C4FE25-6111-4A1E-A1BA-D720D5952215}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20496" windowHeight="7692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19420" windowHeight="7690"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$10:$J$10</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,11 +74,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$$-240A]\ #,##0"/>
-    <numFmt numFmtId="165" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$$-240A]\ #,##0"/>
+    <numFmt numFmtId="166" formatCode="[$$-240A]\ #,##0;\-[$$-240A]\ #,##0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -143,7 +137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,9 +289,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -314,12 +308,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -347,29 +335,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -394,26 +379,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>845820</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96EA430F-4938-4564-88B8-C968DE938F37}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -432,100 +411,16 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5303520" y="30480"/>
-          <a:ext cx="1783080" cy="1120140"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="914400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="190500" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="70000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5273039" cy="1142999"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectángulo 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F115429-54FD-4212-9DF9-0CA0B569C149}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15240" y="22860"/>
-          <a:ext cx="5273039" cy="1142999"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="16200000" rotWithShape="0">
-            <a:prstClr val="black">
-              <a:alpha val="40000"/>
-            </a:prstClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="obliqueBottomRight"/>
-          <a:lightRig rig="threePt" dir="t"/>
-        </a:scene3d>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="es-ES" sz="5400" b="1" cap="none" spc="0">
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="12700" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a:rPr>
-            <a:t>POPGYM</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -784,185 +679,185 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <pane xSplit="9" ySplit="10" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="35.21875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="14" style="17" customWidth="1"/>
-    <col min="6" max="6" width="13" style="29" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="17" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="14" style="15" customWidth="1"/>
+    <col min="6" max="6" width="13" style="21" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="16.90625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" style="15" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="1"/>
+    <col min="12" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+    <row r="2" spans="1:12" ht="19.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+    <row r="4" spans="1:12" ht="16.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:12" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+    <row r="5" spans="1:12" ht="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:12" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="10" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="25" t="s">
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="11" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="26">
         <f>SUM(G11:G1048576)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.65" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="23" t="s">
         <v>3</v>
       </c>
       <c r="L9" s="2"/>
@@ -980,8 +875,5948 @@
       <c r="J10" s="6"/>
       <c r="L10" s="3"/>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G11" s="21">
+        <f>(D11-C11)*E11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G12" s="21">
+        <f t="shared" ref="G12:G75" si="0">(D12-C12)*E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G13" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G14" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G15" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="G16" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G17" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G18" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G19" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G20" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G21" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G22" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G23" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G24" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G25" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G26" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G27" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G28" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G29" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G30" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G31" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G32" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G33" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G34" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G35" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G36" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G37" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G38" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G39" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G40" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G41" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G42" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G43" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G44" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G45" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G46" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G47" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G48" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G49" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G50" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G51" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G52" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G53" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G54" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G55" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G56" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G57" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G58" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G59" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G60" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G61" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G62" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G63" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G64" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G65" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G66" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G67" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G68" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G69" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G70" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G71" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G72" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G73" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G74" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G75" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G76" s="21">
+        <f t="shared" ref="G76:G139" si="1">(D76-C76)*E76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G77" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G78" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G79" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G80" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G81" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G82" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G83" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G84" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G85" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G86" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G87" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G88" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G89" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G90" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G91" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G92" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G93" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G94" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G95" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G96" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G97" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G98" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G99" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G100" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G101" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G102" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G103" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G104" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G105" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G106" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G107" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G108" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G109" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G110" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G111" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G112" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G113" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G114" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G115" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G116" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G117" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G118" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G119" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G120" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G121" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G122" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G123" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G124" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G125" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G126" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G127" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G128" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G129" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G130" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G131" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G132" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G133" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G134" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G135" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G136" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G137" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G138" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G139" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G140" s="21">
+        <f t="shared" ref="G140:G203" si="2">(D140-C140)*E140</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G141" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G142" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G143" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G144" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G145" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G146" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G147" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G148" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G149" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G150" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G151" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G152" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G153" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G154" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G155" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G156" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G157" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G158" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G159" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G160" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G161" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G162" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G163" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G164" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G165" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G166" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G167" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G168" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G169" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G170" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G171" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G172" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G173" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G174" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G175" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G176" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G177" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G178" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G179" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G180" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G181" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G182" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G183" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G184" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G185" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G186" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G187" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G188" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G189" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G190" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G191" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G192" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G193" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G194" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G195" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G196" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G197" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G198" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G199" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G200" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G201" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G202" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G203" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G204" s="21">
+        <f t="shared" ref="G204:G267" si="3">(D204-C204)*E204</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G205" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G206" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G207" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G208" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G209" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G210" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G211" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G212" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G213" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G214" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G215" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G216" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G217" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G218" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G219" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G220" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G221" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G222" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G223" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G224" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G225" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G226" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G227" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G228" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G229" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G230" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G231" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G232" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G233" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G234" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G235" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G236" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G237" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G238" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G239" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G240" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G241" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G242" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G243" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G244" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G245" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G246" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G247" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G248" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G249" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G250" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G251" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G252" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G253" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G254" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G255" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G256" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G257" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G258" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G259" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G260" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G261" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G262" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G263" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G264" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G265" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G266" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G267" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G268" s="21">
+        <f t="shared" ref="G268:G331" si="4">(D268-C268)*E268</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G269" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G270" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G271" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G272" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G273" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G274" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G275" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G276" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G277" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G278" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G279" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G280" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G281" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G282" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G283" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G284" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G285" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G286" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G287" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G288" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G289" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G290" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G291" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G292" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G293" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G294" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G295" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G296" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G297" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G298" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G299" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G300" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G301" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G302" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G303" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G304" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G305" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G306" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G307" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G308" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G309" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G310" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G311" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G312" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G313" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G314" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G315" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G316" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G317" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G318" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G319" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G320" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G321" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G322" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G323" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G324" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G325" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G326" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G327" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G328" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G329" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G330" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G331" s="21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G332" s="21">
+        <f t="shared" ref="G332:G395" si="5">(D332-C332)*E332</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G333" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G334" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G335" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G336" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G337" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G338" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G339" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G340" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G341" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G342" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G343" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G344" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G345" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G346" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G347" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G348" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G349" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G350" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G351" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G352" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G353" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G354" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G355" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G356" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G357" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G358" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G359" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G360" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G361" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G362" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G363" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G364" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G365" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G366" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G367" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G368" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G369" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G370" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G371" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G372" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G373" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G374" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G375" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G376" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G377" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G378" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G379" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G380" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G381" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G382" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G383" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G384" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G385" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G386" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G387" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G388" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G389" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G390" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G391" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G392" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G393" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G394" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G395" s="21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G396" s="21">
+        <f t="shared" ref="G396:G459" si="6">(D396-C396)*E396</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G397" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G398" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G399" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G400" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G401" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G402" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G403" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G404" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G405" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G406" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G407" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G408" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G409" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G410" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G411" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G412" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G413" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G414" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G415" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G416" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G417" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G418" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G419" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G420" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G421" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G422" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G423" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G424" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G425" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G426" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G427" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G428" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G429" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G430" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G431" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G432" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G433" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G434" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G435" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G436" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G437" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G438" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G439" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G440" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G441" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G442" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G443" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G444" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G445" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G446" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G447" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G448" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G449" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G450" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G451" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G452" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G453" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G454" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G455" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G456" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G457" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G458" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G459" s="21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G460" s="21">
+        <f t="shared" ref="G460:G523" si="7">(D460-C460)*E460</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G461" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G462" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G463" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G464" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G465" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G466" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G467" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G468" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G469" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G470" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G471" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G472" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G473" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G474" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G475" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G476" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G477" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G478" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G479" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G480" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G481" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G482" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G483" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G484" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G485" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G486" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G487" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G488" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G489" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G490" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G491" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G492" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G493" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G494" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G495" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G496" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G497" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G498" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G499" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G500" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G501" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G502" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G503" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G504" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G505" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G506" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G507" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G508" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G509" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G510" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G511" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G512" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G513" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G514" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G515" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G516" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G517" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G518" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G519" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G520" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G521" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G522" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G523" s="21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G524" s="21">
+        <f t="shared" ref="G524:G587" si="8">(D524-C524)*E524</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G525" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G526" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G527" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G528" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G529" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G530" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G531" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G532" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G533" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G534" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G535" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G536" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G537" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G538" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G539" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G540" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G541" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G542" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G543" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G544" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G545" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G546" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G547" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G548" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G549" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G550" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G551" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G552" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G553" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G554" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G555" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G556" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G557" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G558" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G559" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G560" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G561" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G562" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G563" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G564" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G565" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G566" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G567" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G568" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G569" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G570" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G571" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G572" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G573" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G574" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G575" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G576" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G577" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G578" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G579" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G580" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G581" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G582" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G583" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G584" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G585" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G586" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G587" s="21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G588" s="21">
+        <f t="shared" ref="G588:G651" si="9">(D588-C588)*E588</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G589" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G590" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G591" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G592" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G593" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G594" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G595" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G596" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G597" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G598" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G599" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G600" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G601" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G602" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G603" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G604" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G605" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G606" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G607" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G608" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G609" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G610" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G611" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G612" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G613" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G614" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G615" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G616" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G617" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G618" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G619" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G620" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G621" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G622" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G623" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G624" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G625" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G626" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G627" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G628" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G629" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G630" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G631" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G632" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G633" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G634" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G635" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G636" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G637" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G638" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G639" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G640" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G641" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G642" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G643" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G644" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G645" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G646" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G647" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G648" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G649" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G650" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G651" s="21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G652" s="21">
+        <f t="shared" ref="G652:G715" si="10">(D652-C652)*E652</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G653" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G654" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G655" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G656" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G657" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G658" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G659" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G660" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G661" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G662" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G663" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G664" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G665" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G666" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G667" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G668" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G669" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G670" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G671" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G672" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G673" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G674" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G675" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G676" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G677" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G678" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G679" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G680" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G681" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G682" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G683" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G684" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G685" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G686" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G687" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G688" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G689" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G690" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G691" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G692" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G693" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G694" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G695" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G696" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G697" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G698" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G699" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G700" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G701" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G702" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G703" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G704" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G705" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G706" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G707" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G708" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G709" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G710" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G711" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G712" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G713" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G714" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G715" s="21">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G716" s="21">
+        <f t="shared" ref="G716:G779" si="11">(D716-C716)*E716</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G717" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G718" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G719" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G720" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G721" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G722" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G723" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G724" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G725" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G726" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G727" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G728" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G729" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G730" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G731" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G732" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G733" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G734" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G735" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G736" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G737" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G738" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G739" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G740" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G741" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G742" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G743" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G744" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G745" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G746" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G747" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G748" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G749" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G750" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G751" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G752" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G753" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G754" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G755" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G756" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G757" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G758" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G759" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G760" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G761" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G762" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G763" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G764" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G765" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G766" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G767" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G768" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G769" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G770" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G771" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G772" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G773" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G774" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G775" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G776" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G777" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G778" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G779" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G780" s="21">
+        <f t="shared" ref="G780:G843" si="12">(D780-C780)*E780</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G781" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G782" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G783" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G784" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G785" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G786" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G787" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G788" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G789" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G790" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G791" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G792" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G793" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G794" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G795" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G796" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G797" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G798" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G799" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G800" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G801" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G802" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G803" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G804" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G805" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G806" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G807" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G808" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G809" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G810" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G811" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G812" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G813" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G814" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G815" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G816" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G817" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G818" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G819" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G820" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G821" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G822" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G823" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G824" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G825" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G826" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G827" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G828" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G829" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G830" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G831" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G832" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G833" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G834" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G835" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G836" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G837" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G838" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G839" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G840" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G841" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G842" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G843" s="21">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G844" s="21">
+        <f t="shared" ref="G844:G907" si="13">(D844-C844)*E844</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G845" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G846" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G847" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G848" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G849" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G850" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G851" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G852" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G853" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G854" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G855" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G856" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G857" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G858" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G859" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G860" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G861" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G862" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G863" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G864" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G865" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G866" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G867" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G868" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G869" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G870" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G871" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G872" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G873" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G874" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G875" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G876" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G877" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G878" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G879" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G880" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G881" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G882" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G883" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G884" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G885" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G886" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G887" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G888" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G889" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G890" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G891" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G892" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G893" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G894" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G895" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G896" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G897" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G898" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G899" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G900" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G901" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G902" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G903" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G904" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G905" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G906" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G907" s="21">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G908" s="21">
+        <f t="shared" ref="G908:G971" si="14">(D908-C908)*E908</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G909" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G910" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G911" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G912" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G913" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G914" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G915" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G916" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G917" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G918" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G919" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G920" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G921" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G922" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G923" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G924" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G925" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G926" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G927" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G928" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G929" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G930" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G931" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G932" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G933" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G934" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G935" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G936" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G937" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G938" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G939" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G940" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G941" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G942" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G943" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G944" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G945" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G946" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G947" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G948" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G949" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G950" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G951" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G952" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G953" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G954" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G955" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G956" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G957" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G958" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G959" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G960" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G961" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G962" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G963" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G964" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G965" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G966" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G967" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G968" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="969" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G969" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G970" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G971" s="21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G972" s="21">
+        <f t="shared" ref="G972:G1000" si="15">(D972-C972)*E972</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G973" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G974" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G975" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G976" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G977" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G978" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G979" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G980" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G981" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G982" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G983" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G984" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G985" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G986" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G987" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G988" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G989" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G990" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G991" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G992" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G993" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G994" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G995" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G996" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G997" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G998" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G999" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G1000" s="21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A10:J10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A10:J10"/>
   <mergeCells count="4">
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
